--- a/Data/Excel_Long/camino_continents_long.xlsx
+++ b/Data/Excel_Long/camino_continents_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1312"/>
+  <dimension ref="A1:F1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>608</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2986</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>320</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14934</v>
+        <v>29868</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>593</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>487</v>
+        <v>974</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15629</v>
+        <v>31258</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>763</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>527</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17831</v>
+        <v>35662</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>679</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>444</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>30615</v>
+        <v>61230</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>429</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>44785</v>
+        <v>89570</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>574</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>472</v>
+        <v>944</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>21544</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>93</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>689</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>526</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>13169</v>
+        <v>26338</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3914</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3658</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>229</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>536</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2898</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>177</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3009</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>534</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>8244</v>
+        <v>16488</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>785</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>355</v>
+        <v>710</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>11233</v>
+        <v>22466</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>718</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>283</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>17662</v>
+        <v>35324</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>24079</v>
+        <v>48158</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>513</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>267</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11149</v>
+        <v>22298</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>163</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>318</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>5688</v>
+        <v>11376</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>137</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1149</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>592</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="140">
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>287</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>326</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>983</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="155">
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>204</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>183</v>
+        <v>366</v>
       </c>
     </row>
     <row r="159">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>7020</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="161">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>589</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="164">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>343</v>
+        <v>686</v>
       </c>
     </row>
     <row r="165">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>8973</v>
+        <v>17946</v>
       </c>
     </row>
     <row r="167">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168">
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>758</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="170">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>352</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>11550</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="173">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175">
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>666</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="176">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>261</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177">
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>17582</v>
+        <v>35164</v>
       </c>
     </row>
     <row r="179">
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>319</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>282</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183">
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184">
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>25452</v>
+        <v>50904</v>
       </c>
     </row>
     <row r="185">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="186">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>522</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="188">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>334</v>
+        <v>668</v>
       </c>
     </row>
     <row r="189">
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190">
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>12398</v>
+        <v>24796</v>
       </c>
     </row>
     <row r="191">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192">
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>692</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="194">
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>310</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>6405</v>
+        <v>12810</v>
       </c>
     </row>
     <row r="197">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>169</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="201">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202">
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1445</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="203">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205">
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>749</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="208">
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213">
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215">
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>597</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="218">
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1533</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="224">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>326</v>
+        <v>652</v>
       </c>
     </row>
     <row r="227">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228">
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229">
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>7495</v>
+        <v>14990</v>
       </c>
     </row>
     <row r="230">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>675</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="233">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>359</v>
+        <v>718</v>
       </c>
     </row>
     <row r="234">
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>11580</v>
+        <v>23160</v>
       </c>
     </row>
     <row r="236">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238">
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>911</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="239">
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>424</v>
+        <v>848</v>
       </c>
     </row>
     <row r="240">
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
     </row>
     <row r="241">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>13398</v>
+        <v>26796</v>
       </c>
     </row>
     <row r="242">
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>217</v>
+        <v>434</v>
       </c>
     </row>
     <row r="243">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>726</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="245">
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
     </row>
     <row r="246">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247">
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>18878</v>
+        <v>37756</v>
       </c>
     </row>
     <row r="248">
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249">
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250">
@@ -6433,7 +6433,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="251">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>376</v>
+        <v>752</v>
       </c>
     </row>
     <row r="252">
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>26333</v>
+        <v>52666</v>
       </c>
     </row>
     <row r="254">
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255">
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="256">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>651</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="257">
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>381</v>
+        <v>762</v>
       </c>
     </row>
     <row r="258">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="259">
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>13938</v>
+        <v>27876</v>
       </c>
     </row>
     <row r="260">
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>136</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261">
@@ -31922,6 +31922,318 @@
       </c>
       <c r="F1312" t="n">
         <v>247</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1313" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>América del Norte</t>
+        </is>
+      </c>
+      <c r="F1313" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1314" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>América del Sur</t>
+        </is>
+      </c>
+      <c r="F1314" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1315" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="F1315" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1316" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F1316" t="n">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1317" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>Oceanía</t>
+        </is>
+      </c>
+      <c r="F1317" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C1318" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>África</t>
+        </is>
+      </c>
+      <c r="F1318" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1319" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>América del Norte</t>
+        </is>
+      </c>
+      <c r="F1319" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1320" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>América del Sur</t>
+        </is>
+      </c>
+      <c r="F1320" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1321" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="F1321" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1322" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F1322" t="n">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1323" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>Oceanía</t>
+        </is>
+      </c>
+      <c r="F1323" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1324" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="F1324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C1325" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>África</t>
+        </is>
+      </c>
+      <c r="F1325" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_continents_long.xlsx
+++ b/Data/Excel_Long/camino_continents_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1325"/>
+  <dimension ref="A1:F1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1216</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2664</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5972</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29868</v>
+        <v>14934</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1186</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>974</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>31258</v>
+        <v>15629</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1526</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1054</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>35662</v>
+        <v>17831</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1358</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>888</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>61230</v>
+        <v>30615</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>858</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>89570</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1148</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>944</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>43088</v>
+        <v>21544</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1378</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1052</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>26338</v>
+        <v>13169</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>208</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7828</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7316</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>458</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1072</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5796</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>354</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6018</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1068</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>16488</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1570</v>
+        <v>785</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>710</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22466</v>
+        <v>11233</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1436</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>566</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>35324</v>
+        <v>17662</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>48158</v>
+        <v>24079</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1026</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>534</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>22298</v>
+        <v>11149</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>326</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>636</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>11376</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>274</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2298</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1184</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140">
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>574</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>652</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1966</v>
+        <v>983</v>
       </c>
     </row>
     <row r="155">
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>408</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>366</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>14040</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="161">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1178</v>
+        <v>589</v>
       </c>
     </row>
     <row r="164">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>686</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>17946</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="167">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168">
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169">
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1516</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>704</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172">
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>23100</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="173">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>416</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175">
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1332</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>522</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177">
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178">
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>35164</v>
+        <v>17582</v>
       </c>
     </row>
     <row r="179">
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>638</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>564</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183">
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184">
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>50904</v>
+        <v>25452</v>
       </c>
     </row>
     <row r="185">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1044</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>668</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189">
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190">
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>24796</v>
+        <v>12398</v>
       </c>
     </row>
     <row r="191">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192">
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1384</v>
+        <v>692</v>
       </c>
     </row>
     <row r="194">
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
     </row>
     <row r="195">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>12810</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="197">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>338</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="200">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202">
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2890</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="203">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205">
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1498</v>
+        <v>749</v>
       </c>
     </row>
     <row r="208">
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
     </row>
     <row r="213">
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215">
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1194</v>
+        <v>597</v>
       </c>
     </row>
     <row r="218">
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>3066</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="224">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>652</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228">
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="229">
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>14990</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="230">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231">
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1350</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>718</v>
+        <v>359</v>
       </c>
     </row>
     <row r="234">
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>23160</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="236">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="238">
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1822</v>
+        <v>911</v>
       </c>
     </row>
     <row r="239">
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>848</v>
+        <v>424</v>
       </c>
     </row>
     <row r="240">
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
     </row>
     <row r="241">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>26796</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="242">
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1452</v>
+        <v>726</v>
       </c>
     </row>
     <row r="245">
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>650</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
     </row>
     <row r="247">
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>37756</v>
+        <v>18878</v>
       </c>
     </row>
     <row r="248">
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249">
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -6433,7 +6433,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="251">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>752</v>
+        <v>376</v>
       </c>
     </row>
     <row r="252">
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>52666</v>
+        <v>26333</v>
       </c>
     </row>
     <row r="254">
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="255">
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1302</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257">
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>762</v>
+        <v>381</v>
       </c>
     </row>
     <row r="258">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="259">
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>27876</v>
+        <v>13938</v>
       </c>
     </row>
     <row r="260">
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>272</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261">
@@ -32233,6 +32233,150 @@
         </is>
       </c>
       <c r="F1325" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1326" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>América del Norte</t>
+        </is>
+      </c>
+      <c r="F1326" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1327" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>América del Sur</t>
+        </is>
+      </c>
+      <c r="F1327" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1328" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="F1328" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1329" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F1329" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1330" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>Oceanía</t>
+        </is>
+      </c>
+      <c r="F1330" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C1331" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>África</t>
+        </is>
+      </c>
+      <c r="F1331" t="n">
         <v>5</v>
       </c>
     </row>
